--- a/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
+++ b/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\Informes_Gestion_ECP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A30282-6B50-4638-817B-D3570DF81E71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B616F-63AF-4790-99C7-D66450D67856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Transporte" sheetId="1" r:id="rId1"/>
-    <sheet name="Producción" sheetId="2" r:id="rId2"/>
+    <sheet name="Transporte Cenit" sheetId="1" r:id="rId1"/>
+    <sheet name="TGI Transporte de Gas" sheetId="3" r:id="rId2"/>
+    <sheet name="Producción" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>kw/bl</t>
   </si>
@@ -88,6 +89,30 @@
   </si>
   <si>
     <t>Promedio</t>
+  </si>
+  <si>
+    <t>Transportado</t>
+  </si>
+  <si>
+    <t>Quemado</t>
+  </si>
+  <si>
+    <t>Mpc</t>
+  </si>
+  <si>
+    <t>Quemado/Transportado</t>
+  </si>
+  <si>
+    <t>MPC/MPC</t>
+  </si>
+  <si>
+    <t>Mpc/mpc</t>
+  </si>
+  <si>
+    <t>Perdidas por venteo</t>
+  </si>
+  <si>
+    <t>MPC venteo/MPC transportado</t>
   </si>
 </sst>
 </file>
@@ -96,7 +121,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -263,7 +288,7 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -273,7 +298,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
@@ -281,6 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -298,6 +323,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>344317</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>172520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76AC2B5B-B9B0-64CF-A17F-A0D007D25EB1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6191250" y="1076325"/>
+          <a:ext cx="10155067" cy="7668695"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -565,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18:G19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,19 +679,23 @@
       </c>
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <f>+H11*1000</f>
+        <v>1246.6666666666667</v>
+      </c>
       <c r="K7" s="1"/>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>2018</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>2019</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>2020</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -631,31 +709,31 @@
       <c r="D11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11">
         <v>1.29</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11">
         <v>1.28</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="11">
         <v>1.17</v>
       </c>
       <c r="H11" s="10">
         <f>+AVERAGE(E11:G11)</f>
         <v>1.2466666666666668</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" t="s">
         <v>15</v>
       </c>
-      <c r="J11" s="11">
-        <v>2.1089444444444445E-3</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="J11">
+        <v>2.1089444444444402E-3</v>
+      </c>
+      <c r="K11" s="11" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>5</v>
       </c>
       <c r="E12" s="3">
@@ -664,10 +742,10 @@
       <c r="F12" s="3">
         <v>1.51</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>1.56</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <f>+AVERAGE(E12:G12)</f>
         <v>1.5366666666666664</v>
       </c>
@@ -677,7 +755,7 @@
       <c r="J12" s="3">
         <v>2.6390000000000003E-3</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="13" t="s">
         <v>2</v>
       </c>
     </row>
@@ -709,6 +787,10 @@
       <c r="G16" s="2">
         <v>436.17130694444444</v>
       </c>
+      <c r="J16" s="2">
+        <f>+SUM(E16:G16)</f>
+        <v>1422.0827780555555</v>
+      </c>
     </row>
     <row r="17" spans="4:8" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
@@ -729,15 +811,15 @@
       <c r="D18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <f>+E16/(E16+E17)</f>
         <v>0.44086383845244087</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="17">
         <f t="shared" ref="F18:G18" si="0">+F16/(F16+F17)</f>
         <v>0.4489756001377615</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G18" s="17">
         <f t="shared" si="0"/>
         <v>0.42935389954512643</v>
       </c>
@@ -746,15 +828,15 @@
       <c r="D19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <f>+E17/(E17+E16)</f>
         <v>0.55913616154755907</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="17">
         <f t="shared" ref="F19:G19" si="1">+F17/(F17+F16)</f>
         <v>0.5510243998622385</v>
       </c>
-      <c r="G19" s="18">
+      <c r="G19" s="17">
         <f t="shared" si="1"/>
         <v>0.57064610045487352</v>
       </c>
@@ -990,6 +1072,228 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63434A3-787E-4310-97F5-71D1E921F4CC}">
+  <dimension ref="C6:F27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>15314</v>
+      </c>
+      <c r="D8">
+        <v>183.4</v>
+      </c>
+      <c r="E8">
+        <f>+D8/C8</f>
+        <v>1.1975969700927257E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>15263</v>
+      </c>
+      <c r="D9">
+        <v>183.7</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E19" si="0">+D9/C9</f>
+        <v>1.2035641748018083E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>14653</v>
+      </c>
+      <c r="D10">
+        <v>172.3</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>1.1758684228485635E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>10877</v>
+      </c>
+      <c r="D11">
+        <v>96.6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>8.8811253102877626E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>13127</v>
+      </c>
+      <c r="D12">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>1.0642187857088443E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>14797</v>
+      </c>
+      <c r="D13">
+        <v>204.2</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>1.3800094613773061E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>13031</v>
+      </c>
+      <c r="D14">
+        <v>145.6</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>1.1173355843757194E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>13695</v>
+      </c>
+      <c r="D15">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>9.5071193866374578E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>14111</v>
+      </c>
+      <c r="D16">
+        <v>149</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.0559138260931189E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>14483</v>
+      </c>
+      <c r="D17">
+        <v>168.1</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.160671131671615E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>14539</v>
+      </c>
+      <c r="D18">
+        <v>179.7</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.2359859687736433E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>14925</v>
+      </c>
+      <c r="D19">
+        <v>185.982</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.246110552763819E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <f>+AVERAGE(E8:E19)</f>
+        <v>1.1396749456833071E-2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <f>+SUM(C8:C19)</f>
+        <v>168815</v>
+      </c>
+      <c r="D24">
+        <f>+SUM(D8:D19)</f>
+        <v>1938.482</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="18">
+        <f>+(12485/1000)/168813</f>
+        <v>7.3957574357425075E-5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141EB5CF-9B9E-4306-8344-55ABA2A26657}">
   <dimension ref="C6:H7"/>
   <sheetViews>

--- a/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
+++ b/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\Informes_Gestion_ECP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01B616F-63AF-4790-99C7-D66450D67856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B73FD-3659-4085-B48F-63F0D28A8D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transporte Cenit" sheetId="1" r:id="rId1"/>
@@ -639,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,8 +1075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63434A3-787E-4310-97F5-71D1E921F4CC}">
   <dimension ref="C6:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1127,7 @@
         <v>183.7</v>
       </c>
       <c r="E9">
-        <f t="shared" ref="E9:E19" si="0">+D9/C9</f>
+        <f>+D9/C9</f>
         <v>1.2035641748018083E-2</v>
       </c>
     </row>
@@ -1139,7 +1139,7 @@
         <v>172.3</v>
       </c>
       <c r="E10">
-        <f t="shared" si="0"/>
+        <f>+D10/C10</f>
         <v>1.1758684228485635E-2</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         <v>96.6</v>
       </c>
       <c r="E11">
-        <f t="shared" si="0"/>
+        <f>+D11/C11</f>
         <v>8.8811253102877626E-3</v>
       </c>
     </row>
@@ -1163,7 +1163,7 @@
         <v>139.69999999999999</v>
       </c>
       <c r="E12">
-        <f t="shared" si="0"/>
+        <f>+D12/C12</f>
         <v>1.0642187857088443E-2</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>204.2</v>
       </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E9:E19" si="0">+D13/C13</f>
         <v>1.3800094613773061E-2</v>
       </c>
     </row>

--- a/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
+++ b/DataBases/Informes_Gestion_ECP/Informes de Gestion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\DataBases\Informes_Gestion_ECP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6B73FD-3659-4085-B48F-63F0D28A8D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52093C3C-EA5C-4CE3-9603-319A69125809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transporte Cenit" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>kw/bl</t>
   </si>
@@ -113,15 +113,37 @@
   </si>
   <si>
     <t>MPC venteo/MPC transportado</t>
+  </si>
+  <si>
+    <t>Kwh/BE</t>
+  </si>
+  <si>
+    <t>Total produccion</t>
+  </si>
+  <si>
+    <t>kpd</t>
+  </si>
+  <si>
+    <t>barriles/año</t>
+  </si>
+  <si>
+    <t>Electricidad T</t>
+  </si>
+  <si>
+    <t>Kwh</t>
+  </si>
+  <si>
+    <t>Gwh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -286,7 +308,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -306,6 +328,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -639,8 +662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="D4:K64"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView showGridLines="0" topLeftCell="A16" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B63434A3-787E-4310-97F5-71D1E921F4CC}">
   <dimension ref="C6:F27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1198,7 @@
         <v>204.2</v>
       </c>
       <c r="E13">
-        <f t="shared" ref="E9:E19" si="0">+D13/C13</f>
+        <f t="shared" ref="E13:E19" si="0">+D13/C13</f>
         <v>1.3800094613773061E-2</v>
       </c>
     </row>
@@ -1295,15 +1318,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{141EB5CF-9B9E-4306-8344-55ABA2A26657}">
-  <dimension ref="C6:H7"/>
+  <dimension ref="C6:J14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D6">
         <v>2016</v>
       </c>
@@ -1320,7 +1343,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>3</v>
       </c>
@@ -1337,7 +1360,51 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="H7">
-        <v>1.07</v>
+        <v>0.52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10">
+        <v>750</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <f>+I10*1000*365</f>
+        <v>273750000</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13">
+        <f>+I11*H7</f>
+        <v>142350000</v>
+      </c>
+      <c r="J13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="19">
+        <f>+I13/1000000</f>
+        <v>142.35</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
